--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H2">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I2">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J2">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>5.491084878432001</v>
+        <v>81.01644527581333</v>
       </c>
       <c r="R2">
-        <v>49.419763905888</v>
+        <v>729.1480074823201</v>
       </c>
       <c r="S2">
-        <v>0.0162895338805639</v>
+        <v>0.3155663923527879</v>
       </c>
       <c r="T2">
-        <v>0.0162895338805639</v>
+        <v>0.3155663923527879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H3">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I3">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J3">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>0.527486314016</v>
+        <v>11.286196338848</v>
       </c>
       <c r="R3">
-        <v>4.747376826144</v>
+        <v>101.575767049632</v>
       </c>
       <c r="S3">
-        <v>0.001564810301411881</v>
+        <v>0.0439607569785436</v>
       </c>
       <c r="T3">
-        <v>0.001564810301411881</v>
+        <v>0.04396075697854361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H4">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I4">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J4">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>2.544602095645334</v>
+        <v>48.39605673969333</v>
       </c>
       <c r="R4">
-        <v>22.901418860808</v>
+        <v>435.56451065724</v>
       </c>
       <c r="S4">
-        <v>0.007548668972934339</v>
+        <v>0.1885070244374843</v>
       </c>
       <c r="T4">
-        <v>0.00754866897293434</v>
+        <v>0.1885070244374843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H5">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I5">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J5">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>117.488284348896</v>
+        <v>66.81456445605332</v>
       </c>
       <c r="R5">
-        <v>1057.394559140064</v>
+        <v>601.33108010448</v>
       </c>
       <c r="S5">
-        <v>0.3485339292400754</v>
+        <v>0.2602487802351668</v>
       </c>
       <c r="T5">
-        <v>0.3485339292400754</v>
+        <v>0.2602487802351668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H6">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I6">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J6">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
-        <v>11.286196338848</v>
+        <v>9.307768196672001</v>
       </c>
       <c r="R6">
-        <v>101.575767049632</v>
+        <v>83.76991377004801</v>
       </c>
       <c r="S6">
-        <v>0.03348097538365841</v>
+        <v>0.03625460017012961</v>
       </c>
       <c r="T6">
-        <v>0.03348097538365841</v>
+        <v>0.03625460017012962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H7">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I7">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J7">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>54.44478480786933</v>
+        <v>39.91240841837333</v>
       </c>
       <c r="R7">
-        <v>490.003063270824</v>
+        <v>359.21167576536</v>
       </c>
       <c r="S7">
-        <v>0.1615127404479405</v>
+        <v>0.1554624458258876</v>
       </c>
       <c r="T7">
-        <v>0.1615127404479405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.666649</v>
-      </c>
-      <c r="H8">
-        <v>4.999947</v>
-      </c>
-      <c r="I8">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J8">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>55.908252</v>
-      </c>
-      <c r="N8">
-        <v>167.724756</v>
-      </c>
-      <c r="O8">
-        <v>0.6412441619121594</v>
-      </c>
-      <c r="P8">
-        <v>0.6412441619121594</v>
-      </c>
-      <c r="Q8">
-        <v>93.179432287548</v>
-      </c>
-      <c r="R8">
-        <v>838.614890587932</v>
-      </c>
-      <c r="S8">
-        <v>0.2764206987915201</v>
-      </c>
-      <c r="T8">
-        <v>0.2764206987915201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.666649</v>
-      </c>
-      <c r="H9">
-        <v>4.999947</v>
-      </c>
-      <c r="I9">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J9">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.370676</v>
-      </c>
-      <c r="N9">
-        <v>16.112028</v>
-      </c>
-      <c r="O9">
-        <v>0.06159939735768788</v>
-      </c>
-      <c r="P9">
-        <v>0.06159939735768788</v>
-      </c>
-      <c r="Q9">
-        <v>8.951031784723998</v>
-      </c>
-      <c r="R9">
-        <v>80.55928606251599</v>
-      </c>
-      <c r="S9">
-        <v>0.02655361167261759</v>
-      </c>
-      <c r="T9">
-        <v>0.0265536116726176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.666649</v>
-      </c>
-      <c r="H10">
-        <v>4.999947</v>
-      </c>
-      <c r="I10">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J10">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>25.90822366666667</v>
-      </c>
-      <c r="N10">
-        <v>77.724671</v>
-      </c>
-      <c r="O10">
-        <v>0.2971564407301527</v>
-      </c>
-      <c r="P10">
-        <v>0.2971564407301527</v>
-      </c>
-      <c r="Q10">
-        <v>43.17991506582633</v>
-      </c>
-      <c r="R10">
-        <v>388.619235592437</v>
-      </c>
-      <c r="S10">
-        <v>0.1280950313092779</v>
-      </c>
-      <c r="T10">
-        <v>0.1280950313092779</v>
+        <v>0.1554624458258876</v>
       </c>
     </row>
   </sheetData>
